--- a/Team-Data/2014-15/12-4-2014-15.xlsx
+++ b/Team-Data/2014-15/12-4-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>2.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -759,7 +826,7 @@
         <v>6</v>
       </c>
       <c r="AI2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ2" t="n">
         <v>25</v>
@@ -798,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="AV2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW2" t="n">
         <v>5</v>
@@ -807,7 +874,7 @@
         <v>9</v>
       </c>
       <c r="AY2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-4-2014-15</t>
+          <t>2014-12-04</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE3" t="n">
         <v>22</v>
@@ -950,7 +1017,7 @@
         <v>11</v>
       </c>
       <c r="AL3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM3" t="n">
         <v>11</v>
@@ -959,7 +1026,7 @@
         <v>27</v>
       </c>
       <c r="AO3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -983,7 +1050,7 @@
         <v>15</v>
       </c>
       <c r="AW3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX3" t="n">
         <v>25</v>
@@ -992,7 +1059,7 @@
         <v>24</v>
       </c>
       <c r="AZ3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-4-2014-15</t>
+          <t>2014-12-04</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>-0.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
         <v>1</v>
@@ -1126,10 +1193,10 @@
         <v>18</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>19</v>
@@ -1138,25 +1205,25 @@
         <v>20</v>
       </c>
       <c r="AN4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
         <v>6</v>
       </c>
       <c r="AR4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS4" t="n">
         <v>10</v>
       </c>
       <c r="AT4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU4" t="n">
         <v>24</v>
@@ -1165,7 +1232,7 @@
         <v>17</v>
       </c>
       <c r="AW4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX4" t="n">
         <v>21</v>
@@ -1174,10 +1241,10 @@
         <v>12</v>
       </c>
       <c r="AZ4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB4" t="n">
         <v>19</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-4-2014-15</t>
+          <t>2014-12-04</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1384,7 @@
         <v>27</v>
       </c>
       <c r="AM5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN5" t="n">
         <v>29</v>
@@ -1326,25 +1393,25 @@
         <v>24</v>
       </c>
       <c r="AP5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>22</v>
       </c>
-      <c r="AQ5" t="n">
-        <v>23</v>
-      </c>
       <c r="AR5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS5" t="n">
         <v>14</v>
       </c>
       <c r="AT5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU5" t="n">
         <v>15</v>
       </c>
       <c r="AV5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW5" t="n">
         <v>29</v>
@@ -1356,13 +1423,13 @@
         <v>8</v>
       </c>
       <c r="AZ5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA5" t="n">
         <v>13</v>
       </c>
       <c r="BB5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC5" t="n">
         <v>28</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-4-2014-15</t>
+          <t>2014-12-04</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1542,7 @@
         <v>4</v>
       </c>
       <c r="AE6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
         <v>11</v>
@@ -1496,25 +1563,25 @@
         <v>13</v>
       </c>
       <c r="AL6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
         <v>4</v>
       </c>
       <c r="AP6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ6" t="n">
         <v>16</v>
       </c>
       <c r="AR6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS6" t="n">
         <v>6</v>
@@ -1538,10 +1605,10 @@
         <v>11</v>
       </c>
       <c r="AZ6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-4-2014-15</t>
+          <t>2014-12-04</t>
         </is>
       </c>
     </row>
@@ -1576,157 +1643,157 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
         <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>0.588</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>48.3</v>
       </c>
       <c r="I7" t="n">
-        <v>37.1</v>
+        <v>37.4</v>
       </c>
       <c r="J7" t="n">
-        <v>80.3</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L7" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="M7" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="N7" t="n">
-        <v>0.357</v>
+        <v>0.362</v>
       </c>
       <c r="O7" t="n">
         <v>21.1</v>
       </c>
       <c r="P7" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.774</v>
+        <v>0.772</v>
       </c>
       <c r="R7" t="n">
-        <v>9.9</v>
+        <v>10.2</v>
       </c>
       <c r="S7" t="n">
-        <v>30.6</v>
+        <v>30.9</v>
       </c>
       <c r="T7" t="n">
-        <v>40.6</v>
+        <v>41.1</v>
       </c>
       <c r="U7" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="V7" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W7" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X7" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="AA7" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>102.9</v>
+        <v>103.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF7" t="n">
         <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
         <v>8</v>
       </c>
       <c r="AL7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO7" t="n">
         <v>3</v>
       </c>
       <c r="AP7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AR7" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AS7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AU7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW7" t="n">
         <v>17</v>
       </c>
       <c r="AX7" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AY7" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC7" t="n">
         <v>9</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-4-2014-15</t>
+          <t>2014-12-04</t>
         </is>
       </c>
     </row>
@@ -1758,67 +1825,67 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>0.789</v>
+        <v>0.75</v>
       </c>
       <c r="H8" t="n">
         <v>48.8</v>
       </c>
       <c r="I8" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="J8" t="n">
-        <v>86.90000000000001</v>
+        <v>86.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="L8" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M8" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.342</v>
+        <v>0.344</v>
       </c>
       <c r="O8" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P8" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.764</v>
+        <v>0.767</v>
       </c>
       <c r="R8" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S8" t="n">
-        <v>31.2</v>
+        <v>30.8</v>
       </c>
       <c r="T8" t="n">
-        <v>42.6</v>
+        <v>42.2</v>
       </c>
       <c r="U8" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="V8" t="n">
         <v>11.7</v>
       </c>
       <c r="W8" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X8" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y8" t="n">
         <v>3.3</v>
@@ -1827,28 +1894,28 @@
         <v>20.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>110.7</v>
+        <v>110.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.9</v>
+        <v>8.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI8" t="n">
         <v>1</v>
@@ -1860,52 +1927,52 @@
         <v>4</v>
       </c>
       <c r="AL8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AM8" t="n">
         <v>2</v>
       </c>
       <c r="AN8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO8" t="n">
         <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AT8" t="n">
         <v>18</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>13</v>
       </c>
       <c r="AU8" t="n">
         <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW8" t="n">
         <v>14</v>
       </c>
       <c r="AX8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY8" t="n">
         <v>2</v>
       </c>
       <c r="AZ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-4-2014-15</t>
+          <t>2014-12-04</t>
         </is>
       </c>
     </row>
@@ -2018,19 +2085,19 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF9" t="n">
         <v>15</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>14</v>
       </c>
       <c r="AG9" t="n">
         <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
         <v>10</v>
@@ -2045,7 +2112,7 @@
         <v>9</v>
       </c>
       <c r="AM9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN9" t="n">
         <v>19</v>
@@ -2057,10 +2124,10 @@
         <v>7</v>
       </c>
       <c r="AQ9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS9" t="n">
         <v>9</v>
@@ -2069,10 +2136,10 @@
         <v>7</v>
       </c>
       <c r="AU9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AW9" t="n">
         <v>19</v>
@@ -2093,7 +2160,7 @@
         <v>5</v>
       </c>
       <c r="BC9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-4-2014-15</t>
+          <t>2014-12-04</t>
         </is>
       </c>
     </row>
@@ -2206,13 +2273,13 @@
         <v>29</v>
       </c>
       <c r="AF10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG10" t="n">
         <v>29</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
         <v>26</v>
@@ -2236,13 +2303,13 @@
         <v>26</v>
       </c>
       <c r="AP10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
       </c>
       <c r="AR10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS10" t="n">
         <v>13</v>
@@ -2257,10 +2324,10 @@
         <v>8</v>
       </c>
       <c r="AW10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY10" t="n">
         <v>18</v>
@@ -2269,7 +2336,7 @@
         <v>8</v>
       </c>
       <c r="BA10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB10" t="n">
         <v>28</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-4-2014-15</t>
+          <t>2014-12-04</t>
         </is>
       </c>
     </row>
@@ -2304,64 +2371,64 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0.889</v>
+        <v>0.882</v>
       </c>
       <c r="H11" t="n">
         <v>48</v>
       </c>
       <c r="I11" t="n">
-        <v>40.3</v>
+        <v>39.9</v>
       </c>
       <c r="J11" t="n">
-        <v>83.2</v>
+        <v>82.2</v>
       </c>
       <c r="K11" t="n">
-        <v>0.484</v>
+        <v>0.485</v>
       </c>
       <c r="L11" t="n">
         <v>9.6</v>
       </c>
       <c r="M11" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.383</v>
+        <v>0.379</v>
       </c>
       <c r="O11" t="n">
-        <v>16.7</v>
+        <v>17.2</v>
       </c>
       <c r="P11" t="n">
-        <v>21.7</v>
+        <v>22</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.767</v>
+        <v>0.781</v>
       </c>
       <c r="R11" t="n">
-        <v>9.6</v>
+        <v>9.1</v>
       </c>
       <c r="S11" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="T11" t="n">
-        <v>45.9</v>
+        <v>45.3</v>
       </c>
       <c r="U11" t="n">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="V11" t="n">
-        <v>16.6</v>
+        <v>17.1</v>
       </c>
       <c r="W11" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="X11" t="n">
         <v>6.4</v>
@@ -2370,19 +2437,19 @@
         <v>3.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.6</v>
+        <v>21.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.3</v>
+        <v>19.6</v>
       </c>
       <c r="AB11" t="n">
-        <v>106.8</v>
+        <v>106.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.9</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2400,31 +2467,31 @@
         <v>3</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK11" t="n">
         <v>1</v>
       </c>
       <c r="AL11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP11" t="n">
         <v>21</v>
       </c>
-      <c r="AP11" t="n">
-        <v>24</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AR11" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
@@ -2439,7 +2506,7 @@
         <v>28</v>
       </c>
       <c r="AW11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AX11" t="n">
         <v>1</v>
@@ -2448,10 +2515,10 @@
         <v>4</v>
       </c>
       <c r="AZ11" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB11" t="n">
         <v>3</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-4-2014-15</t>
+          <t>2014-12-04</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" t="n">
         <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>0.765</v>
+        <v>0.778</v>
       </c>
       <c r="H12" t="n">
         <v>48</v>
       </c>
       <c r="I12" t="n">
-        <v>34.3</v>
+        <v>34.1</v>
       </c>
       <c r="J12" t="n">
-        <v>80.40000000000001</v>
+        <v>80</v>
       </c>
       <c r="K12" t="n">
         <v>0.426</v>
@@ -2513,76 +2580,76 @@
         <v>12.1</v>
       </c>
       <c r="M12" t="n">
-        <v>34.7</v>
+        <v>34.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.347</v>
+        <v>0.351</v>
       </c>
       <c r="O12" t="n">
-        <v>16.7</v>
+        <v>17.7</v>
       </c>
       <c r="P12" t="n">
-        <v>23.7</v>
+        <v>25.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.705</v>
+        <v>0.702</v>
       </c>
       <c r="R12" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S12" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="T12" t="n">
-        <v>43.2</v>
+        <v>43.4</v>
       </c>
       <c r="U12" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V12" t="n">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="W12" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="X12" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.5</v>
+        <v>21.1</v>
       </c>
       <c r="AB12" t="n">
-        <v>97.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
         <v>3</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH12" t="n">
         <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AJ12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK12" t="n">
         <v>27</v>
@@ -2597,10 +2664,10 @@
         <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AP12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
@@ -2609,7 +2676,7 @@
         <v>3</v>
       </c>
       <c r="AS12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT12" t="n">
         <v>10</v>
@@ -2627,13 +2694,13 @@
         <v>7</v>
       </c>
       <c r="AY12" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BA12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BB12" t="n">
         <v>21</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-4-2014-15</t>
+          <t>2014-12-04</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>0.368</v>
+        <v>0.389</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
@@ -2686,43 +2753,43 @@
         <v>35.7</v>
       </c>
       <c r="J13" t="n">
-        <v>83.40000000000001</v>
+        <v>83</v>
       </c>
       <c r="K13" t="n">
-        <v>0.428</v>
+        <v>0.43</v>
       </c>
       <c r="L13" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M13" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="N13" t="n">
-        <v>0.334</v>
+        <v>0.337</v>
       </c>
       <c r="O13" t="n">
-        <v>14.6</v>
+        <v>15.1</v>
       </c>
       <c r="P13" t="n">
-        <v>20.3</v>
+        <v>20.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.719</v>
+        <v>0.721</v>
       </c>
       <c r="R13" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S13" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="T13" t="n">
-        <v>46.3</v>
+        <v>46.1</v>
       </c>
       <c r="U13" t="n">
         <v>19</v>
       </c>
       <c r="V13" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W13" t="n">
         <v>4.9</v>
@@ -2737,28 +2804,28 @@
         <v>20.4</v>
       </c>
       <c r="AA13" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.09999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>-2.9</v>
+        <v>-2.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG13" t="n">
         <v>20</v>
       </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
         <v>25</v>
@@ -2770,25 +2837,25 @@
         <v>25</v>
       </c>
       <c r="AL13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AM13" t="n">
         <v>16</v>
       </c>
       <c r="AN13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO13" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AP13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AQ13" t="n">
         <v>26</v>
       </c>
       <c r="AR13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS13" t="n">
         <v>4</v>
@@ -2812,13 +2879,13 @@
         <v>20</v>
       </c>
       <c r="AZ13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC13" t="n">
         <v>21</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-4-2014-15</t>
+          <t>2014-12-04</t>
         </is>
       </c>
     </row>
@@ -2928,13 +2995,13 @@
         <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF14" t="n">
         <v>6</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>7</v>
       </c>
       <c r="AG14" t="n">
         <v>7</v>
@@ -2943,7 +3010,7 @@
         <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ14" t="n">
         <v>27</v>
@@ -2958,16 +3025,16 @@
         <v>3</v>
       </c>
       <c r="AN14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO14" t="n">
         <v>10</v>
       </c>
       <c r="AP14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
         <v>30</v>
@@ -2979,7 +3046,7 @@
         <v>28</v>
       </c>
       <c r="AU14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV14" t="n">
         <v>6</v>
@@ -2994,10 +3061,10 @@
         <v>3</v>
       </c>
       <c r="AZ14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-4-2014-15</t>
+          <t>2014-12-04</t>
         </is>
       </c>
     </row>
@@ -3032,64 +3099,64 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" t="n">
-        <v>0.278</v>
+        <v>0.263</v>
       </c>
       <c r="H15" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>38.9</v>
+        <v>38.4</v>
       </c>
       <c r="J15" t="n">
-        <v>86.40000000000001</v>
+        <v>86</v>
       </c>
       <c r="K15" t="n">
-        <v>0.451</v>
+        <v>0.446</v>
       </c>
       <c r="L15" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="M15" t="n">
-        <v>18.6</v>
+        <v>18.2</v>
       </c>
       <c r="N15" t="n">
-        <v>0.337</v>
+        <v>0.336</v>
       </c>
       <c r="O15" t="n">
-        <v>20.3</v>
+        <v>20.8</v>
       </c>
       <c r="P15" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.746</v>
+        <v>0.75</v>
       </c>
       <c r="R15" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S15" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="T15" t="n">
-        <v>42.6</v>
+        <v>42.3</v>
       </c>
       <c r="U15" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="V15" t="n">
         <v>12.6</v>
       </c>
       <c r="W15" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
         <v>4.4</v>
@@ -3098,40 +3165,40 @@
         <v>3.9</v>
       </c>
       <c r="Z15" t="n">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.2</v>
+        <v>22.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>104.4</v>
+        <v>103.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.8</v>
+        <v>-7.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
         <v>22</v>
       </c>
       <c r="AF15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI15" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AJ15" t="n">
         <v>3</v>
       </c>
       <c r="AK15" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AL15" t="n">
         <v>25</v>
@@ -3140,49 +3207,49 @@
         <v>24</v>
       </c>
       <c r="AN15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO15" t="n">
         <v>5</v>
       </c>
       <c r="AP15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT15" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AU15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV15" t="n">
         <v>5</v>
       </c>
       <c r="AW15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ15" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="BA15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BB15" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-4-2014-15</t>
+          <t>2014-12-04</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3359,10 @@
         <v>7.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF16" t="n">
         <v>2</v>
@@ -3328,10 +3395,10 @@
         <v>8</v>
       </c>
       <c r="AP16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR16" t="n">
         <v>17</v>
@@ -3340,7 +3407,7 @@
         <v>17</v>
       </c>
       <c r="AT16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU16" t="n">
         <v>11</v>
@@ -3355,13 +3422,13 @@
         <v>27</v>
       </c>
       <c r="AY16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ16" t="n">
         <v>6</v>
       </c>
       <c r="BA16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-4-2014-15</t>
+          <t>2014-12-04</t>
         </is>
       </c>
     </row>
@@ -3474,13 +3541,13 @@
         <v>-1.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF17" t="n">
         <v>15</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>14</v>
       </c>
       <c r="AG17" t="n">
         <v>14</v>
@@ -3489,7 +3556,7 @@
         <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3504,7 +3571,7 @@
         <v>12</v>
       </c>
       <c r="AN17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO17" t="n">
         <v>9</v>
@@ -3513,7 +3580,7 @@
         <v>8</v>
       </c>
       <c r="AQ17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3534,13 +3601,13 @@
         <v>7</v>
       </c>
       <c r="AX17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY17" t="n">
         <v>10</v>
       </c>
       <c r="AZ17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA17" t="n">
         <v>14</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-4-2014-15</t>
+          <t>2014-12-04</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-1.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE18" t="n">
         <v>13</v>
@@ -3671,13 +3738,13 @@
         <v>2</v>
       </c>
       <c r="AI18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL18" t="n">
         <v>24</v>
@@ -3686,16 +3753,16 @@
         <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR18" t="n">
         <v>9</v>
@@ -3704,7 +3771,7 @@
         <v>21</v>
       </c>
       <c r="AT18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU18" t="n">
         <v>9</v>
@@ -3716,16 +3783,16 @@
         <v>2</v>
       </c>
       <c r="AX18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY18" t="n">
         <v>21</v>
       </c>
       <c r="AZ18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB18" t="n">
         <v>20</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-4-2014-15</t>
+          <t>2014-12-04</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-10.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="n">
         <v>26</v>
@@ -3850,10 +3917,10 @@
         <v>26</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ19" t="n">
         <v>8</v>
@@ -3877,10 +3944,10 @@
         <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS19" t="n">
         <v>28</v>
@@ -3889,7 +3956,7 @@
         <v>26</v>
       </c>
       <c r="AU19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV19" t="n">
         <v>23</v>
@@ -3901,7 +3968,7 @@
         <v>26</v>
       </c>
       <c r="AY19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ19" t="n">
         <v>19</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-4-2014-15</t>
+          <t>2014-12-04</t>
         </is>
       </c>
     </row>
@@ -3945,157 +4012,157 @@
         <v>16</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
-        <v>0.438</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>38.3</v>
+        <v>38.5</v>
       </c>
       <c r="J20" t="n">
-        <v>85.09999999999999</v>
+        <v>85.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L20" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M20" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.338</v>
+        <v>0.339</v>
       </c>
       <c r="O20" t="n">
-        <v>17.1</v>
+        <v>17.5</v>
       </c>
       <c r="P20" t="n">
-        <v>22.9</v>
+        <v>24.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.744</v>
+        <v>0.727</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>12.4</v>
       </c>
       <c r="S20" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T20" t="n">
-        <v>41.8</v>
+        <v>42.7</v>
       </c>
       <c r="U20" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="V20" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="W20" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X20" t="n">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>19</v>
+        <v>20.1</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.2</v>
+        <v>101.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.7</v>
+        <v>2.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG20" t="n">
         <v>14</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>19</v>
       </c>
       <c r="AH20" t="n">
         <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AJ20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AK20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM20" t="n">
         <v>21</v>
       </c>
-      <c r="AL20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>22</v>
-      </c>
       <c r="AN20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AQ20" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AR20" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AS20" t="n">
         <v>22</v>
       </c>
       <c r="AT20" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AU20" t="n">
         <v>14</v>
       </c>
       <c r="AV20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AY20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA20" t="n">
         <v>24</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>29</v>
       </c>
       <c r="BB20" t="n">
         <v>14</v>
       </c>
       <c r="BC20" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-4-2014-15</t>
+          <t>2014-12-04</t>
         </is>
       </c>
     </row>
@@ -4124,112 +4191,112 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" t="n">
         <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2</v>
+        <v>0.211</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J21" t="n">
-        <v>81</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L21" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M21" t="n">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="N21" t="n">
-        <v>0.366</v>
+        <v>0.37</v>
       </c>
       <c r="O21" t="n">
-        <v>13.5</v>
+        <v>13.9</v>
       </c>
       <c r="P21" t="n">
-        <v>17.5</v>
+        <v>18.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.774</v>
+        <v>0.773</v>
       </c>
       <c r="R21" t="n">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="S21" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="T21" t="n">
-        <v>40</v>
+        <v>39.6</v>
       </c>
       <c r="U21" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="V21" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="W21" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="X21" t="n">
         <v>3.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Z21" t="n">
         <v>24.1</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="AB21" t="n">
-        <v>93.09999999999999</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-5.6</v>
+        <v>-5.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
       </c>
       <c r="AF21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
       </c>
       <c r="AJ21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK21" t="n">
         <v>21</v>
       </c>
-      <c r="AK21" t="n">
-        <v>23</v>
-      </c>
       <c r="AL21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN21" t="n">
         <v>8</v>
@@ -4244,7 +4311,7 @@
         <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AS21" t="n">
         <v>30</v>
@@ -4253,10 +4320,10 @@
         <v>27</v>
       </c>
       <c r="AU21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV21" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AW21" t="n">
         <v>23</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-4-2014-15</t>
+          <t>2014-12-04</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
         <v>22</v>
@@ -4396,10 +4463,10 @@
         <v>23</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ22" t="n">
         <v>22</v>
@@ -4420,13 +4487,13 @@
         <v>25</v>
       </c>
       <c r="AP22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ22" t="n">
         <v>25</v>
       </c>
       <c r="AR22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS22" t="n">
         <v>7</v>
@@ -4441,10 +4508,10 @@
         <v>24</v>
       </c>
       <c r="AW22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY22" t="n">
         <v>22</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-4-2014-15</t>
+          <t>2014-12-04</t>
         </is>
       </c>
     </row>
@@ -4488,97 +4555,97 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23" t="n">
-        <v>0.35</v>
+        <v>0.333</v>
       </c>
       <c r="H23" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="J23" t="n">
-        <v>80.40000000000001</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.456</v>
+        <v>0.452</v>
       </c>
       <c r="L23" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M23" t="n">
-        <v>18.1</v>
+        <v>17.7</v>
       </c>
       <c r="N23" t="n">
         <v>0.371</v>
       </c>
       <c r="O23" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="P23" t="n">
         <v>20.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.717</v>
+        <v>0.719</v>
       </c>
       <c r="R23" t="n">
-        <v>8.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
       <c r="T23" t="n">
-        <v>41.5</v>
+        <v>42.1</v>
       </c>
       <c r="U23" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="V23" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="W23" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X23" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="Z23" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.8</v>
+        <v>94.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.8</v>
+        <v>-6.3</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG23" t="n">
         <v>21</v>
       </c>
       <c r="AH23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
         <v>20</v>
@@ -4587,34 +4654,34 @@
         <v>24</v>
       </c>
       <c r="AK23" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP23" t="n">
         <v>28</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>27</v>
       </c>
       <c r="AQ23" t="n">
         <v>27</v>
       </c>
       <c r="AR23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS23" t="n">
         <v>8</v>
       </c>
       <c r="AT23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AU23" t="n">
         <v>26</v>
@@ -4623,25 +4690,25 @@
         <v>25</v>
       </c>
       <c r="AW23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ23" t="n">
         <v>15</v>
       </c>
       <c r="BA23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BB23" t="n">
         <v>24</v>
       </c>
       <c r="BC23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-4-2014-15</t>
+          <t>2014-12-04</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-13.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
         <v>30</v>
@@ -4766,7 +4833,7 @@
         <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK24" t="n">
         <v>29</v>
@@ -4781,16 +4848,16 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS24" t="n">
         <v>27</v>
@@ -4799,7 +4866,7 @@
         <v>25</v>
       </c>
       <c r="AU24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4814,10 +4881,10 @@
         <v>27</v>
       </c>
       <c r="AZ24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-4-2014-15</t>
+          <t>2014-12-04</t>
         </is>
       </c>
     </row>
@@ -4939,28 +5006,28 @@
         <v>13</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK25" t="n">
         <v>15</v>
       </c>
       <c r="AL25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM25" t="n">
         <v>4</v>
       </c>
       <c r="AN25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO25" t="n">
         <v>13</v>
@@ -4972,22 +5039,22 @@
         <v>1</v>
       </c>
       <c r="AR25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS25" t="n">
         <v>12</v>
       </c>
       <c r="AT25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU25" t="n">
         <v>20</v>
       </c>
       <c r="AV25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX25" t="n">
         <v>23</v>
@@ -4996,7 +5063,7 @@
         <v>8</v>
       </c>
       <c r="AZ25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA25" t="n">
         <v>10</v>
@@ -5005,7 +5072,7 @@
         <v>6</v>
       </c>
       <c r="BC25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-4-2014-15</t>
+          <t>2014-12-04</t>
         </is>
       </c>
     </row>
@@ -5034,121 +5101,121 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" t="n">
         <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>0.789</v>
+        <v>0.778</v>
       </c>
       <c r="H26" t="n">
         <v>48</v>
       </c>
       <c r="I26" t="n">
-        <v>38.8</v>
+        <v>39.1</v>
       </c>
       <c r="J26" t="n">
-        <v>85.59999999999999</v>
+        <v>85.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.453</v>
+        <v>0.456</v>
       </c>
       <c r="L26" t="n">
-        <v>9.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>25.7</v>
+        <v>26</v>
       </c>
       <c r="N26" t="n">
-        <v>0.366</v>
+        <v>0.374</v>
       </c>
       <c r="O26" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P26" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="Q26" t="n">
         <v>0.788</v>
       </c>
       <c r="R26" t="n">
-        <v>11.5</v>
+        <v>11.9</v>
       </c>
       <c r="S26" t="n">
-        <v>35.9</v>
+        <v>35.6</v>
       </c>
       <c r="T26" t="n">
-        <v>47.5</v>
+        <v>47.4</v>
       </c>
       <c r="U26" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="V26" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="W26" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X26" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>103.4</v>
+        <v>104.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AF26" t="n">
         <v>3</v>
       </c>
       <c r="AG26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH26" t="n">
         <v>22</v>
       </c>
       <c r="AI26" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AJ26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN26" t="n">
         <v>5</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>5</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>9</v>
       </c>
       <c r="AO26" t="n">
         <v>22</v>
       </c>
       <c r="AP26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ26" t="n">
         <v>5</v>
@@ -5163,13 +5230,13 @@
         <v>1</v>
       </c>
       <c r="AU26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV26" t="n">
         <v>9</v>
       </c>
       <c r="AW26" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AX26" t="n">
         <v>5</v>
@@ -5184,7 +5251,7 @@
         <v>25</v>
       </c>
       <c r="BB26" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BC26" t="n">
         <v>4</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-4-2014-15</t>
+          <t>2014-12-04</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>0.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF27" t="n">
         <v>15</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>14</v>
       </c>
       <c r="AG27" t="n">
         <v>14</v>
@@ -5336,13 +5403,13 @@
         <v>3</v>
       </c>
       <c r="AR27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU27" t="n">
         <v>27</v>
@@ -5351,7 +5418,7 @@
         <v>26</v>
       </c>
       <c r="AW27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX27" t="n">
         <v>24</v>
@@ -5360,7 +5427,7 @@
         <v>30</v>
       </c>
       <c r="AZ27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA27" t="n">
         <v>1</v>
@@ -5369,7 +5436,7 @@
         <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-4-2014-15</t>
+          <t>2014-12-04</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F28" t="n">
         <v>5</v>
       </c>
       <c r="G28" t="n">
-        <v>0.706</v>
+        <v>0.722</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
@@ -5416,88 +5483,88 @@
         <v>37.1</v>
       </c>
       <c r="J28" t="n">
-        <v>82.09999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.451</v>
+        <v>0.455</v>
       </c>
       <c r="L28" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>22.2</v>
+        <v>22.6</v>
       </c>
       <c r="N28" t="n">
-        <v>0.354</v>
+        <v>0.365</v>
       </c>
       <c r="O28" t="n">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="P28" t="n">
-        <v>22.4</v>
+        <v>22</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.784</v>
+        <v>0.785</v>
       </c>
       <c r="R28" t="n">
         <v>9.6</v>
       </c>
       <c r="S28" t="n">
-        <v>35.6</v>
+        <v>35.3</v>
       </c>
       <c r="T28" t="n">
-        <v>45.3</v>
+        <v>44.9</v>
       </c>
       <c r="U28" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="V28" t="n">
-        <v>14</v>
+        <v>14.4</v>
       </c>
       <c r="W28" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA28" t="n">
         <v>19.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AE28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG28" t="n">
         <v>7</v>
       </c>
-      <c r="AG28" t="n">
-        <v>8</v>
-      </c>
       <c r="AH28" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI28" t="n">
         <v>17</v>
       </c>
       <c r="AJ28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK28" t="n">
         <v>16</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>18</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5506,13 +5573,13 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AO28" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ28" t="n">
         <v>7</v>
@@ -5524,28 +5591,28 @@
         <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV28" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AW28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ28" t="n">
         <v>4</v>
       </c>
       <c r="BA28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB28" t="n">
         <v>16</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-4-2014-15</t>
+          <t>2014-12-04</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5728,7 @@
         <v>4</v>
       </c>
       <c r="AE29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF29" t="n">
         <v>3</v>
@@ -5670,7 +5737,7 @@
         <v>3</v>
       </c>
       <c r="AH29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI29" t="n">
         <v>6</v>
@@ -5688,7 +5755,7 @@
         <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO29" t="n">
         <v>2</v>
@@ -5706,16 +5773,16 @@
         <v>23</v>
       </c>
       <c r="AT29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU29" t="n">
         <v>25</v>
       </c>
       <c r="AV29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX29" t="n">
         <v>15</v>
@@ -5724,16 +5791,16 @@
         <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB29" t="n">
         <v>2</v>
       </c>
       <c r="BC29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-4-2014-15</t>
+          <t>2014-12-04</t>
         </is>
       </c>
     </row>
@@ -5846,10 +5913,10 @@
         <v>22</v>
       </c>
       <c r="AF30" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH30" t="n">
         <v>22</v>
@@ -5873,22 +5940,22 @@
         <v>25</v>
       </c>
       <c r="AO30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR30" t="n">
         <v>15</v>
       </c>
       <c r="AS30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU30" t="n">
         <v>18</v>
@@ -5903,7 +5970,7 @@
         <v>11</v>
       </c>
       <c r="AY30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ30" t="n">
         <v>1</v>
@@ -5915,7 +5982,7 @@
         <v>22</v>
       </c>
       <c r="BC30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-4-2014-15</t>
+          <t>2014-12-04</t>
         </is>
       </c>
     </row>
@@ -6022,25 +6089,25 @@
         <v>3</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI31" t="n">
         <v>12</v>
       </c>
       <c r="AJ31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK31" t="n">
         <v>5</v>
@@ -6055,13 +6122,13 @@
         <v>3</v>
       </c>
       <c r="AO31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP31" t="n">
         <v>17</v>
       </c>
       <c r="AQ31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR31" t="n">
         <v>19</v>
@@ -6076,19 +6143,19 @@
         <v>4</v>
       </c>
       <c r="AV31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX31" t="n">
         <v>16</v>
       </c>
       <c r="AY31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA31" t="n">
         <v>12</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-4-2014-15</t>
+          <t>2014-12-04</t>
         </is>
       </c>
     </row>
